--- a/data/output/seat_status_updated_classroom_image13.xlsx
+++ b/data/output/seat_status_updated_classroom_image13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>394.9514770507812</v>
+        <v>104.5146713256836</v>
       </c>
       <c r="B2" t="n">
-        <v>727.2930908203125</v>
+        <v>711.3162841796875</v>
       </c>
       <c r="C2" t="n">
-        <v>452.5650634765625</v>
+        <v>178.2127227783203</v>
       </c>
       <c r="D2" t="n">
-        <v>768.6317138671875</v>
+        <v>850.3527221679688</v>
       </c>
       <c r="E2" t="n">
-        <v>423.7582702636719</v>
+        <v>141.3636932373047</v>
       </c>
       <c r="F2" t="n">
-        <v>747.96240234375</v>
+        <v>780.83447265625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4140329360961914</v>
+        <v>0.4142475128173828</v>
       </c>
       <c r="B3" t="n">
-        <v>721.4678344726562</v>
+        <v>722.3006591796875</v>
       </c>
       <c r="C3" t="n">
-        <v>51.94313430786133</v>
+        <v>51.81767272949219</v>
       </c>
       <c r="D3" t="n">
-        <v>839.5062866210938</v>
+        <v>839.5736083984375</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1785831451416</v>
+        <v>26.11595916748047</v>
       </c>
       <c r="F3" t="n">
-        <v>780.487060546875</v>
+        <v>780.9371337890625</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104.8077392578125</v>
+        <v>2.051277160644531</v>
       </c>
       <c r="B4" t="n">
-        <v>711.388671875</v>
+        <v>719.0537109375</v>
       </c>
       <c r="C4" t="n">
-        <v>178.2772064208984</v>
+        <v>115.9463806152344</v>
       </c>
       <c r="D4" t="n">
-        <v>850.2515869140625</v>
+        <v>846.38818359375</v>
       </c>
       <c r="E4" t="n">
-        <v>141.54248046875</v>
+        <v>58.99882888793945</v>
       </c>
       <c r="F4" t="n">
-        <v>780.8201293945312</v>
+        <v>782.720947265625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.965465545654297</v>
+        <v>942.7694702148438</v>
       </c>
       <c r="B5" t="n">
-        <v>718.776611328125</v>
+        <v>708.5087280273438</v>
       </c>
       <c r="C5" t="n">
-        <v>115.8313903808594</v>
+        <v>1037.0458984375</v>
       </c>
       <c r="D5" t="n">
-        <v>846.3607177734375</v>
+        <v>873.242919921875</v>
       </c>
       <c r="E5" t="n">
-        <v>58.89842987060547</v>
+        <v>989.90771484375</v>
       </c>
       <c r="F5" t="n">
-        <v>782.5686645507812</v>
+        <v>790.8758544921875</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>942.4020385742188</v>
+        <v>208.9256286621094</v>
       </c>
       <c r="B6" t="n">
-        <v>709.2368774414062</v>
+        <v>711.6887817382812</v>
       </c>
       <c r="C6" t="n">
-        <v>1036.370483398438</v>
+        <v>319.3222045898438</v>
       </c>
       <c r="D6" t="n">
-        <v>873.0885009765625</v>
+        <v>871.6150512695312</v>
       </c>
       <c r="E6" t="n">
-        <v>989.38623046875</v>
+        <v>264.1239013671875</v>
       </c>
       <c r="F6" t="n">
-        <v>791.1627197265625</v>
+        <v>791.6519165039062</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>209.5972595214844</v>
+        <v>165.8218383789062</v>
       </c>
       <c r="B7" t="n">
-        <v>711.6860961914062</v>
+        <v>727.6349487304688</v>
       </c>
       <c r="C7" t="n">
-        <v>319.9984130859375</v>
+        <v>271.0452270507812</v>
       </c>
       <c r="D7" t="n">
-        <v>871.7355346679688</v>
+        <v>889.6587524414062</v>
       </c>
       <c r="E7" t="n">
-        <v>264.7978515625</v>
+        <v>218.4335327148438</v>
       </c>
       <c r="F7" t="n">
-        <v>791.7108154296875</v>
+        <v>808.6468505859375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>165.6122436523438</v>
+        <v>361.6242065429688</v>
       </c>
       <c r="B8" t="n">
-        <v>728.3994750976562</v>
+        <v>730.6657104492188</v>
       </c>
       <c r="C8" t="n">
-        <v>270.7053527832031</v>
+        <v>486.7587890625</v>
       </c>
       <c r="D8" t="n">
-        <v>889.6511840820312</v>
+        <v>904.4281005859375</v>
       </c>
       <c r="E8" t="n">
-        <v>218.1587982177734</v>
+        <v>424.1914978027344</v>
       </c>
       <c r="F8" t="n">
-        <v>809.0253295898438</v>
+        <v>817.546875</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>362.0734252929688</v>
+        <v>434.5162048339844</v>
       </c>
       <c r="B9" t="n">
-        <v>732.36962890625</v>
+        <v>739.2066650390625</v>
       </c>
       <c r="C9" t="n">
-        <v>486.4309692382812</v>
+        <v>550.89013671875</v>
       </c>
       <c r="D9" t="n">
-        <v>904.3775024414062</v>
+        <v>909.2042236328125</v>
       </c>
       <c r="E9" t="n">
-        <v>424.252197265625</v>
+        <v>492.7031860351562</v>
       </c>
       <c r="F9" t="n">
-        <v>818.37353515625</v>
+        <v>824.2054443359375</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>434.5893859863281</v>
+        <v>285.5157470703125</v>
       </c>
       <c r="B10" t="n">
-        <v>739.7905883789062</v>
+        <v>733.1107788085938</v>
       </c>
       <c r="C10" t="n">
-        <v>550.7616577148438</v>
+        <v>384.9159240722656</v>
       </c>
       <c r="D10" t="n">
-        <v>909.0701904296875</v>
+        <v>926.8320922851562</v>
       </c>
       <c r="E10" t="n">
-        <v>492.675537109375</v>
+        <v>335.2158203125</v>
       </c>
       <c r="F10" t="n">
-        <v>824.430419921875</v>
+        <v>829.971435546875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>285.8495178222656</v>
+        <v>649.2974243164062</v>
       </c>
       <c r="B11" t="n">
-        <v>734.0478515625</v>
+        <v>730.8646850585938</v>
       </c>
       <c r="C11" t="n">
-        <v>384.9776306152344</v>
+        <v>786.7423095703125</v>
       </c>
       <c r="D11" t="n">
-        <v>926.7030029296875</v>
+        <v>944.6143798828125</v>
       </c>
       <c r="E11" t="n">
-        <v>335.41357421875</v>
+        <v>718.0198974609375</v>
       </c>
       <c r="F11" t="n">
-        <v>830.3754272460938</v>
+        <v>837.739501953125</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>649.3624267578125</v>
+        <v>476.7194213867188</v>
       </c>
       <c r="B12" t="n">
-        <v>731.4132690429688</v>
+        <v>783.111083984375</v>
       </c>
       <c r="C12" t="n">
-        <v>786.7257080078125</v>
+        <v>575.36865234375</v>
       </c>
       <c r="D12" t="n">
-        <v>944.3951416015625</v>
+        <v>926.2652587890625</v>
       </c>
       <c r="E12" t="n">
-        <v>718.0440673828125</v>
+        <v>526.0440673828125</v>
       </c>
       <c r="F12" t="n">
-        <v>837.9041748046875</v>
+        <v>854.6881713867188</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>476.851806640625</v>
+        <v>524.9442138671875</v>
       </c>
       <c r="B13" t="n">
-        <v>783.7811889648438</v>
+        <v>781.1887817382812</v>
       </c>
       <c r="C13" t="n">
-        <v>574.9576416015625</v>
+        <v>683.6617431640625</v>
       </c>
       <c r="D13" t="n">
-        <v>926.19775390625</v>
+        <v>933.9706420898438</v>
       </c>
       <c r="E13" t="n">
-        <v>525.9047241210938</v>
+        <v>604.302978515625</v>
       </c>
       <c r="F13" t="n">
-        <v>854.989501953125</v>
+        <v>857.5797119140625</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>525.5452880859375</v>
+        <v>797.4679565429688</v>
       </c>
       <c r="B14" t="n">
-        <v>781.3623657226562</v>
+        <v>749.9791870117188</v>
       </c>
       <c r="C14" t="n">
-        <v>682.91259765625</v>
+        <v>955.936279296875</v>
       </c>
       <c r="D14" t="n">
-        <v>933.9135131835938</v>
+        <v>978.0286254882812</v>
       </c>
       <c r="E14" t="n">
-        <v>604.2289428710938</v>
+        <v>876.7021484375</v>
       </c>
       <c r="F14" t="n">
-        <v>857.637939453125</v>
+        <v>864.00390625</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -860,36 +860,6 @@
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>797.5962524414062</v>
-      </c>
-      <c r="B15" t="n">
-        <v>750.172119140625</v>
-      </c>
-      <c r="C15" t="n">
-        <v>955.8975219726562</v>
-      </c>
-      <c r="D15" t="n">
-        <v>977.8703002929688</v>
-      </c>
-      <c r="E15" t="n">
-        <v>876.7468872070312</v>
-      </c>
-      <c r="F15" t="n">
-        <v>864.021240234375</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Seat 14</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>Empty</t>
         </is>
